--- a/document/Test_Case/TestCase_CaNhan/TestCase_BuiXuanQuang.xlsx
+++ b/document/Test_Case/TestCase_CaNhan/TestCase_BuiXuanQuang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHNZZ\Documents\GitHub\nhom3_laptrinhdidong3\document\Test_Case\TestCase_CaNhan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="104">
   <si>
     <t>TC ID</t>
   </si>
@@ -298,17 +298,6 @@
   </si>
   <si>
     <t>Chuyển qua giao diện tìm lại mật khẩu</t>
-  </si>
-  <si>
-    <t>Kiểm tra đăng nhập bằng google</t>
-  </si>
-  <si>
-    <t>1. Mở ứng dụng
-2. Tìm đến màn hình đăng nhập
-3. Nhấp vào button đăng nhập với google</t>
-  </si>
-  <si>
-    <t>Đăng nhập được với tài khoản google, đăng ký tài khoản google đó lên firebase.</t>
   </si>
   <si>
     <t>Màn hình đăng ký</t>
@@ -565,89 +554,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,14 +979,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -1080,22 +1069,22 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1123,13 +1112,13 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1183,53 +1172,53 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1252,373 +1241,363 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="21">
         <v>1</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="22" t="s">
+      <c r="C19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="21">
         <v>2</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="22" t="s">
+      <c r="C20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="21">
         <v>3</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="21">
         <v>4</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="24">
         <v>5</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
-        <v>6</v>
-      </c>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="21">
+        <v>6</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="22" t="s">
+      <c r="C24" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
-        <v>7</v>
-      </c>
-      <c r="B25" s="28" t="s">
+      <c r="A25" s="21">
+        <v>7</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="22" t="s">
+      <c r="C25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="24">
         <v>8</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="22" t="s">
+      <c r="C26" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+      <c r="A27" s="21">
         <v>9</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="22" t="s">
+      <c r="C27" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="21">
         <v>10</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="22" t="s">
+      <c r="C28" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
+      <c r="A29" s="21">
         <v>11</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="22" t="s">
+      <c r="C29" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
+      <c r="A30" s="21">
         <v>12</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="22" t="s">
+      <c r="C30" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="A31" s="21">
         <v>13</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="22" t="s">
+      <c r="C31" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="21">
         <v>14</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="22" t="s">
+      <c r="C32" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
+      <c r="A33" s="21">
         <v>15</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="22" t="s">
+      <c r="C33" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
+      <c r="A34" s="21">
         <v>16</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="22" t="s">
+      <c r="C34" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
         <v>17</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="22" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
+        <v>17</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
-        <v>17</v>
-      </c>
-      <c r="B36" s="23" t="s">
+      <c r="E36" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1642,320 +1621,320 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+    </row>
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="21">
+        <v>1</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="21">
+        <v>2</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="21">
+        <v>3</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="21">
+        <v>4</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
+        <v>5</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <v>6</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
+        <v>7</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="24">
+        <v>8</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="21">
+        <v>9</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
+        <v>10</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="21">
+        <v>11</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="21">
+        <v>12</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="21">
+        <v>13</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+    </row>
+    <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="21">
+        <v>14</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
-        <v>1</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
-        <v>2</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
-        <v>3</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
-        <v>4</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="25">
-        <v>5</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="27" t="s">
+      <c r="D55" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
-        <v>6</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
-        <v>7</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="24" t="s">
+      <c r="F55" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="21">
+        <v>15</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F48" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="25">
-        <v>8</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="22">
-        <v>9</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
-        <v>10</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="22">
-        <v>11</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="22">
-        <v>12</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
-        <v>13</v>
-      </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-    </row>
-    <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
-        <v>14</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="22">
-        <v>15</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -1978,201 +1957,201 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+    </row>
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="21">
+        <v>1</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="21">
+        <v>2</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="21">
+        <v>3</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="21">
+        <v>4</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="24">
+        <v>5</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+    </row>
+    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="21">
+        <v>7</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="21">
+        <v>8</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="33">
+        <v>9</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="33">
+        <v>10</v>
+      </c>
+      <c r="B72" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-    </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="22">
-        <v>1</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="22">
-        <v>2</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
-        <v>3</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="22">
-        <v>4</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="25">
-        <v>5</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-    </row>
-    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="22">
-        <v>7</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
-        <v>8</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="34">
-        <v>9</v>
-      </c>
-      <c r="B71" s="33" t="s">
+      <c r="C72" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E71" s="35" t="s">
+      <c r="F72" s="35" t="s">
         <v>95</v>
-      </c>
-      <c r="F71" s="36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="34">
-        <v>10</v>
-      </c>
-      <c r="B72" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E72" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F72" s="36" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2196,191 +2175,191 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+    </row>
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="21">
+        <v>1</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="21">
+        <v>2</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="21">
+        <v>3</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="21">
+        <v>4</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="24">
+        <v>5</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+    </row>
+    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="21">
+        <v>7</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+    </row>
+    <row r="85" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="33">
+        <v>9</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F85" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="33">
+        <v>10</v>
+      </c>
+      <c r="B86" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-    </row>
-    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="22">
-        <v>1</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="22">
-        <v>2</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F78" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="22">
-        <v>3</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E79" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F79" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="22">
-        <v>4</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="25">
-        <v>5</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F81" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-    </row>
-    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="22">
-        <v>7</v>
-      </c>
-      <c r="B83" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F83" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-    </row>
-    <row r="85" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="34">
-        <v>9</v>
-      </c>
-      <c r="B85" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C85" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E85" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="F85" s="36" t="s">
+      <c r="C86" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="34" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="34">
-        <v>10</v>
-      </c>
-      <c r="B86" s="33" t="s">
+      <c r="F86" s="35" t="s">
         <v>103</v>
-      </c>
-      <c r="C86" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E86" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F86" s="36" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
